--- a/Doku/KnxNetIp-Protokoll.xlsx
+++ b/Doku/KnxNetIp-Protokoll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="18915" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="18915" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConReq" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="DiscResp" sheetId="5" r:id="rId4"/>
     <sheet name="HBReq" sheetId="7" r:id="rId5"/>
     <sheet name="HBResp" sheetId="8" r:id="rId6"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId7"/>
+    <sheet name="Data" sheetId="9" r:id="rId7"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
   <si>
     <t>1A</t>
   </si>
@@ -169,6 +170,57 @@
   </si>
   <si>
     <t>0A</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>Sequence Counter</t>
+  </si>
+  <si>
+    <t>cEMI Frame</t>
+  </si>
+  <si>
+    <t>CCHeader</t>
+  </si>
+  <si>
+    <t>Source Adr</t>
+  </si>
+  <si>
+    <t>Dest Adr</t>
+  </si>
+  <si>
+    <t>Control1</t>
+  </si>
+  <si>
+    <t>Control2</t>
+  </si>
+  <si>
+    <t>Addit. Info Length</t>
+  </si>
+  <si>
+    <t>MSG Code   0x29 = L_Data.ind</t>
+  </si>
+  <si>
+    <t>Datenlänge</t>
+  </si>
+  <si>
+    <t>APDU</t>
+  </si>
+  <si>
+    <t>Daten</t>
   </si>
 </sst>
 </file>
@@ -203,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -263,43 +315,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -324,20 +368,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,11 +734,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -677,17 +749,17 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="7" t="str">
         <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
         <v>0x01</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -695,15 +767,15 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="str">
+      <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B31" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
         <v>0x02</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -711,45 +783,45 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x03</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="261" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0x04</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x05</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -757,31 +829,31 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x06</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -789,15 +861,15 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x08</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -805,15 +877,15 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x09</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -821,57 +893,57 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0A</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0B</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0C</v>
       </c>
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0D</v>
       </c>
       <c r="C18" s="1">
         <v>46</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -879,31 +951,31 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0E</v>
       </c>
       <c r="C19" s="1">
         <v>51</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0F</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -911,15 +983,15 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x10</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -927,15 +999,15 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="14" t="str">
+      <c r="B22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x11</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -943,57 +1015,57 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="14" t="str">
+      <c r="B24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x13</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="14" t="str">
+      <c r="B25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x14</v>
       </c>
       <c r="C25" s="1">
         <v>12</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="14" t="str">
+      <c r="B26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x15</v>
       </c>
       <c r="C26" s="1">
         <v>46</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1001,31 +1073,31 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="14" t="str">
+      <c r="B27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x16</v>
       </c>
       <c r="C27" s="1">
         <v>51</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="14" t="str">
+      <c r="B28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x17</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1033,15 +1105,15 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="14" t="str">
+      <c r="B29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x18</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1049,15 +1121,15 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="14" t="str">
+      <c r="B30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x19</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1065,31 +1137,31 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="14" t="str">
+      <c r="B31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x1A</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D31"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D28:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1119,11 +1191,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1134,17 +1206,17 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="7" t="str">
         <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
         <v>0x01</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1152,15 +1224,15 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="str">
-        <f t="shared" ref="B7:B31" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ref="B7:B25" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
         <v>0x02</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1168,45 +1240,45 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x03</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0x04</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x05</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1214,31 +1286,31 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x06</v>
       </c>
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
       <c r="C12" s="1">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1246,17 +1318,17 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x08</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1264,17 +1336,17 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x09</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1282,15 +1354,15 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0A</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1298,15 +1370,15 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0B</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1314,207 +1386,207 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0C</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0D</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="22"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0E</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0F</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x10</v>
       </c>
       <c r="C21" s="1">
         <v>57</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="14" t="str">
+      <c r="B22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x11</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x12</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="14" t="str">
+      <c r="B24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x13</v>
       </c>
       <c r="C24" s="1">
         <v>11</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="14" t="str">
+      <c r="B25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x14</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1"/>
     </row>
   </sheetData>
@@ -1544,7 +1616,7 @@
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="55.42578125" customWidth="1"/>
     <col min="6" max="26" width="4.5703125" customWidth="1"/>
@@ -1556,11 +1628,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1571,17 +1643,17 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="7" t="str">
         <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
         <v>0x01</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1589,15 +1661,15 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="str">
-        <f t="shared" ref="B7:B31" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ref="B7:B21" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
         <v>0x02</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1605,45 +1677,45 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x03</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="261" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0x04</v>
       </c>
       <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x05</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1651,31 +1723,31 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x06</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1683,17 +1755,17 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x08</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1701,17 +1773,17 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x09</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1719,15 +1791,15 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0A</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1735,15 +1807,15 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0B</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1751,57 +1823,57 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0C</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0D</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0E</v>
       </c>
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0F</v>
       </c>
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1809,67 +1881,67 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x10</v>
       </c>
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1889,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,11 +1981,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1924,17 +1996,17 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="7" t="str">
         <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
         <v>0x01</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1942,15 +2014,15 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="str">
-        <f t="shared" ref="B7:B25" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ref="B7:B13" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
         <v>0x02</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1958,45 +2030,45 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x03</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0x04</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x05</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2004,31 +2076,31 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x06</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
       <c r="C12" s="1">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2036,171 +2108,171 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x08</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1"/>
     </row>
   </sheetData>
@@ -2219,14 +2291,14 @@
   <dimension ref="A3:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="55.42578125" customWidth="1"/>
     <col min="6" max="26" width="4.5703125" customWidth="1"/>
@@ -2238,11 +2310,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2253,17 +2325,17 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="7" t="str">
         <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
         <v>0x01</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2271,15 +2343,15 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="str">
+      <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B21" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
         <v>0x02</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2287,45 +2359,45 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x03</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="261" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0x04</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x05</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2333,31 +2405,31 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x06</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2365,17 +2437,17 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x08</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2383,17 +2455,17 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x09</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2401,15 +2473,15 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0A</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2417,15 +2489,15 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0B</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2433,57 +2505,57 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0C</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0D</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0E</v>
       </c>
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x0F</v>
       </c>
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2491,67 +2563,67 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x10</v>
       </c>
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2572,7 +2644,7 @@
   <dimension ref="A3:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,11 +2663,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2606,17 +2678,17 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="7" t="str">
         <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
         <v>0x01</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2624,15 +2696,15 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="str">
+      <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B13" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
         <v>0x02</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2640,45 +2712,45 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x03</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0x04</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x05</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2686,31 +2758,31 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x06</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
       <c r="C12" s="1">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2718,171 +2790,171 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x08</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1"/>
     </row>
   </sheetData>
@@ -2898,11 +2970,479 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+    <col min="8" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
+    <col min="14" max="26" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
+        <v>0x01</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ref="B7:B21" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
+        <v>0x02</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x03</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>0x04</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x06</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x07</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x08</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x09</v>
+      </c>
+      <c r="C14" s="1">
+        <v>94</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0A</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0B</v>
+      </c>
+      <c r="C16" s="1">
+        <v>29</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0C</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0D</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0E</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0F</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>67</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" ref="B22:B28" si="1">CONCATENATE("0x",DEC2HEX(A22,2))</f>
+        <v>0x11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>28</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0x12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="22"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0x13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0x14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0x15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>80</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="22"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0x16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>0x17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="29"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D28"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="23" width="4.5703125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doku/KnxNetIp-Protokoll.xlsx
+++ b/Doku/KnxNetIp-Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="59">
   <si>
     <t>1A</t>
   </si>
@@ -222,6 +222,12 @@
   <si>
     <t>Daten</t>
   </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +248,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -377,6 +390,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,26 +419,13 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,10 +750,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -756,7 +772,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -774,7 +790,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -790,8 +806,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -806,8 +822,8 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -820,8 +836,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -836,8 +852,8 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -850,7 +866,7 @@
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -868,7 +884,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
@@ -884,8 +900,8 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -900,8 +916,8 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -914,8 +930,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -928,8 +944,8 @@
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -942,8 +958,8 @@
       <c r="C18" s="1">
         <v>46</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -958,8 +974,8 @@
       <c r="C19" s="1">
         <v>51</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -972,7 +988,7 @@
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -990,7 +1006,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1006,8 +1022,8 @@
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1022,8 +1038,8 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1036,8 +1052,8 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1050,8 +1066,8 @@
       <c r="C25" s="1">
         <v>12</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1064,8 +1080,8 @@
       <c r="C26" s="1">
         <v>46</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1080,8 +1096,8 @@
       <c r="C27" s="1">
         <v>51</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1094,7 +1110,7 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1112,7 +1128,7 @@
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="5" t="s">
         <v>20</v>
       </c>
@@ -1128,7 +1144,7 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
@@ -1144,24 +1160,24 @@
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D28:D31"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1191,10 +1207,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1229,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1231,7 +1247,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1247,8 +1263,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1263,8 +1279,8 @@
       <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1277,8 +1293,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1293,8 +1309,8 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1343,7 +1359,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1361,7 +1377,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1377,8 +1393,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1393,8 +1409,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1407,8 +1423,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="20"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1426,8 +1442,8 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="20"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1445,8 +1461,8 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="13"/>
@@ -1466,8 +1482,8 @@
       <c r="C21" s="1">
         <v>57</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="20"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1485,7 +1501,7 @@
       <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1508,7 +1524,7 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1545,7 @@
       <c r="C24" s="1">
         <v>11</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
@@ -1550,7 +1566,7 @@
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1628,10 +1644,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1666,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1668,7 +1684,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1684,8 +1700,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1700,8 +1716,8 @@
       <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1714,8 +1730,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1730,8 +1746,8 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1780,7 +1796,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1798,7 +1814,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1814,8 +1830,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1830,8 +1846,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1844,8 +1860,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1858,8 +1874,8 @@
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1872,8 +1888,8 @@
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1888,8 +1904,8 @@
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1981,10 +1997,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2019,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2021,7 +2037,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2037,8 +2053,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2053,8 +2069,8 @@
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2067,8 +2083,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2083,8 +2099,8 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2310,10 +2326,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2348,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2350,7 +2366,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2366,8 +2382,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2382,8 +2398,8 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2396,8 +2412,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2412,8 +2428,8 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2462,7 +2478,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2480,7 +2496,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2496,8 +2512,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2512,8 +2528,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2526,8 +2542,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2540,8 +2556,8 @@
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2554,8 +2570,8 @@
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2570,8 +2586,8 @@
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -2663,10 +2679,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +2701,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2703,7 +2719,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2719,8 +2735,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2735,8 +2751,8 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2749,8 +2765,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2765,8 +2781,8 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2972,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,23 +2999,23 @@
     <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" customWidth="1"/>
-    <col min="8" max="12" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" customWidth="1"/>
+    <col min="7" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="12" width="4.5703125" customWidth="1"/>
     <col min="13" max="13" width="33.140625" customWidth="1"/>
     <col min="14" max="26" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3007,7 +3023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3018,14 +3034,23 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3036,12 +3061,21 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3052,12 +3086,21 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="261" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>4</v>
       </c>
@@ -3068,10 +3111,19 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3082,12 +3134,21 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3098,10 +3159,19 @@
       <c r="C11" s="1">
         <v>17</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="30">
+        <v>17</v>
+      </c>
+      <c r="H11" s="30">
+        <v>18</v>
+      </c>
+      <c r="I11" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3112,14 +3182,23 @@
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3130,12 +3209,21 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3146,12 +3234,21 @@
       <c r="C14" s="1">
         <v>94</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>3</v>
+      </c>
+      <c r="I14" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3162,10 +3259,19 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3176,11 +3282,20 @@
       <c r="C16" s="1">
         <v>29</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="19" t="s">
         <v>53</v>
+      </c>
+      <c r="G16" s="1">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,9 +3309,18 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3210,9 +3334,18 @@
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3226,9 +3359,18 @@
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3242,9 +3384,18 @@
       <c r="C20" s="1">
         <v>11</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="20" t="s">
         <v>48</v>
+      </c>
+      <c r="G20" s="30">
+        <v>11</v>
+      </c>
+      <c r="H20" s="30">
+        <v>11</v>
+      </c>
+      <c r="I20" s="30">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3258,8 +3409,17 @@
       <c r="C21" s="1">
         <v>67</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="20"/>
+      <c r="G21" s="30">
+        <v>67</v>
+      </c>
+      <c r="H21" s="30">
+        <v>68</v>
+      </c>
+      <c r="I21" s="30">
+        <v>16</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -3275,9 +3435,18 @@
       <c r="C22" s="1">
         <v>28</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="20" t="s">
         <v>49</v>
+      </c>
+      <c r="G22" s="30">
+        <v>28</v>
+      </c>
+      <c r="H22" s="30">
+        <v>20</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
@@ -3294,8 +3463,17 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="20"/>
+      <c r="G23" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="30">
+        <v>1</v>
+      </c>
+      <c r="I23" s="30">
+        <v>2</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
@@ -3311,9 +3489,18 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="5" t="s">
         <v>54</v>
+      </c>
+      <c r="G24" s="30">
+        <v>3</v>
+      </c>
+      <c r="H24" s="30">
+        <v>4</v>
+      </c>
+      <c r="I24" s="30">
+        <v>1</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
@@ -3330,9 +3517,18 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="20" t="s">
         <v>55</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
@@ -3349,8 +3545,17 @@
       <c r="C26" s="1">
         <v>80</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="20"/>
+      <c r="G26" s="30">
+        <v>80</v>
+      </c>
+      <c r="H26" s="30">
+        <v>80</v>
+      </c>
+      <c r="I26" s="30">
+        <v>81</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
       <c r="M26" s="12"/>
@@ -3366,10 +3571,17 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="29" t="s">
         <v>56</v>
       </c>
+      <c r="G27" s="30">
+        <v>3</v>
+      </c>
+      <c r="H27" s="30">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
       <c r="M27" s="12"/>
@@ -3385,17 +3597,35 @@
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="29"/>
+      <c r="G28" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" ref="B29" si="2">CONCATENATE("0x",DEC2HEX(A29,2))</f>
+        <v>0x18</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
       <c r="M29" s="12"/>
@@ -3412,20 +3642,20 @@
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3433,17 +3663,504 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C28"/>
+      <selection activeCell="B7" sqref="B7:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="4.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>67</v>
+      </c>
+      <c r="R3">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>80</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>68</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>80</v>
+      </c>
+      <c r="W4">
+        <v>15</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>80</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doku/KnxNetIp-Protokoll.xlsx
+++ b/Doku/KnxNetIp-Protokoll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="18915" windowHeight="12330" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="18915" windowHeight="12330" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConReq" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="HBReq" sheetId="7" r:id="rId5"/>
     <sheet name="HBResp" sheetId="8" r:id="rId6"/>
     <sheet name="Data" sheetId="9" r:id="rId7"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId8"/>
+    <sheet name="DataSend" sheetId="10" r:id="rId8"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
   <si>
     <t>1A</t>
   </si>
@@ -227,6 +228,21 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Send Data</t>
+  </si>
+  <si>
+    <t>Receive Data</t>
+  </si>
+  <si>
+    <t>Disconnection Response</t>
+  </si>
+  <si>
+    <t>MSG Code   0x11 = L_Data.req</t>
   </si>
 </sst>
 </file>
@@ -345,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -397,14 +413,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,13 +429,22 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E19"/>
     </sheetView>
   </sheetViews>
@@ -750,10 +769,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -772,7 +791,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -790,7 +809,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -806,8 +825,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -822,8 +841,8 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -836,8 +855,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -852,8 +871,8 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -866,7 +885,7 @@
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -884,7 +903,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
@@ -900,8 +919,8 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -916,8 +935,8 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -930,8 +949,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -944,8 +963,8 @@
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -958,8 +977,8 @@
       <c r="C18" s="1">
         <v>46</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -974,8 +993,8 @@
       <c r="C19" s="1">
         <v>51</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -988,7 +1007,7 @@
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1006,7 +1025,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1022,8 +1041,8 @@
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1038,8 +1057,8 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1052,8 +1071,8 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1066,8 +1085,8 @@
       <c r="C25" s="1">
         <v>12</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1080,8 +1099,8 @@
       <c r="C26" s="1">
         <v>46</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1096,8 +1115,8 @@
       <c r="C27" s="1">
         <v>51</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1110,7 +1129,7 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1128,7 +1147,7 @@
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="5" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1163,7 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
@@ -1160,24 +1179,24 @@
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D31"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D28:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1187,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:E13"/>
     </sheetView>
   </sheetViews>
@@ -1207,10 +1226,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1248,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1247,7 +1266,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1263,8 +1282,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1279,8 +1298,8 @@
       <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1293,8 +1312,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1309,8 +1328,8 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1359,7 +1378,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1377,7 +1396,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1393,8 +1412,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1409,8 +1428,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1423,8 +1442,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="26"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1442,8 +1461,8 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1461,8 +1480,8 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="26" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="13"/>
@@ -1482,8 +1501,8 @@
       <c r="C21" s="1">
         <v>57</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1501,7 +1520,7 @@
       <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1524,7 +1543,7 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1564,7 @@
       <c r="C24" s="1">
         <v>11</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1585,7 @@
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1644,10 +1663,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1685,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1684,7 +1703,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1700,8 +1719,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1716,8 +1735,8 @@
       <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1730,8 +1749,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1746,8 +1765,8 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1796,7 +1815,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1814,7 +1833,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1830,8 +1849,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1846,8 +1865,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1860,8 +1879,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1874,8 +1893,8 @@
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1888,8 +1907,8 @@
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1904,8 +1923,8 @@
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1978,7 +1997,7 @@
   <dimension ref="A3:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,14 +2012,14 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2019,7 +2038,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2037,7 +2056,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2053,8 +2072,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2069,8 +2088,8 @@
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2083,8 +2102,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2099,8 +2118,8 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2326,10 +2345,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2367,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2366,7 +2385,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2382,8 +2401,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2398,8 +2417,8 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2412,8 +2431,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2428,8 +2447,8 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2478,7 +2497,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2496,7 +2515,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2512,8 +2531,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2528,8 +2547,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2542,8 +2561,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2556,8 +2575,8 @@
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2570,8 +2589,8 @@
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2586,8 +2605,8 @@
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -2679,10 +2698,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2720,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2719,7 +2738,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2735,8 +2754,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2751,8 +2770,8 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2765,8 +2784,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2781,8 +2800,8 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2988,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,14 +3027,14 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3034,7 +3053,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3061,7 +3080,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -3086,8 +3105,8 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1">
@@ -3111,8 +3130,8 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
       <c r="G9" s="1">
         <v>20</v>
       </c>
@@ -3134,8 +3153,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1">
@@ -3159,15 +3178,15 @@
       <c r="C11" s="1">
         <v>17</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="30">
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
+      <c r="G11" s="21">
         <v>17</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="21">
         <v>18</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="21">
         <v>15</v>
       </c>
     </row>
@@ -3182,7 +3201,7 @@
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3209,7 +3228,7 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
@@ -3234,17 +3253,17 @@
       <c r="C14" s="1">
         <v>94</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
         <v>3</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="21">
         <v>6</v>
       </c>
     </row>
@@ -3259,8 +3278,10 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
@@ -3282,7 +3303,7 @@
       <c r="C16" s="1">
         <v>29</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -3309,7 +3330,7 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
@@ -3334,7 +3355,7 @@
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
@@ -3359,7 +3380,7 @@
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="5" t="s">
         <v>51</v>
       </c>
@@ -3384,17 +3405,17 @@
       <c r="C20" s="1">
         <v>11</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="21">
         <v>11</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="21">
         <v>11</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="21">
         <v>11</v>
       </c>
     </row>
@@ -3409,15 +3430,15 @@
       <c r="C21" s="1">
         <v>67</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="20"/>
-      <c r="G21" s="30">
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="21">
         <v>67</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="21">
         <v>68</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="21">
         <v>16</v>
       </c>
       <c r="K21" s="8"/>
@@ -3435,17 +3456,17 @@
       <c r="C22" s="1">
         <v>28</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="21">
         <v>28</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="21">
         <v>20</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="21">
         <v>0</v>
       </c>
       <c r="K22" s="8"/>
@@ -3463,15 +3484,15 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="20"/>
-      <c r="G23" s="30" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="G23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="21">
         <v>1</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="21">
         <v>2</v>
       </c>
       <c r="K23" s="8"/>
@@ -3489,17 +3510,17 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="21">
         <v>3</v>
       </c>
-      <c r="H24" s="30">
-        <v>4</v>
-      </c>
-      <c r="I24" s="30">
+      <c r="H24" s="21">
+        <v>4</v>
+      </c>
+      <c r="I24" s="21">
         <v>1</v>
       </c>
       <c r="K24" s="8"/>
@@ -3517,8 +3538,8 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="26" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="1">
@@ -3545,15 +3566,15 @@
       <c r="C26" s="1">
         <v>80</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="20"/>
-      <c r="G26" s="30">
+      <c r="D26" s="24"/>
+      <c r="E26" s="26"/>
+      <c r="G26" s="21">
         <v>80</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="21">
         <v>80</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="21">
         <v>81</v>
       </c>
       <c r="K26" s="8"/>
@@ -3571,14 +3592,14 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="21">
         <v>3</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="21">
         <v>15</v>
       </c>
       <c r="I27" s="1"/>
@@ -3597,12 +3618,12 @@
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="29"/>
-      <c r="G28" s="30" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="31"/>
+      <c r="G28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="1"/>
@@ -3621,8 +3642,8 @@
       <c r="C29" s="1"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30">
+      <c r="G29" s="21"/>
+      <c r="H29" s="21">
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
@@ -3646,22 +3667,701 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D28"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D6:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" customWidth="1"/>
+    <col min="7" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
+    <col min="14" max="26" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
+        <v>0x01</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ref="B7:B29" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
+        <v>0x02</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x03</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>0x04</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="28"/>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x06</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
+      <c r="G11" s="21">
+        <v>17</v>
+      </c>
+      <c r="H11" s="21">
+        <v>18</v>
+      </c>
+      <c r="I11" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x07</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x08</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x09</v>
+      </c>
+      <c r="C14" s="1">
+        <v>94</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>3</v>
+      </c>
+      <c r="I14" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0A</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0B</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0C</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0D</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0E</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0F</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="21">
+        <v>11</v>
+      </c>
+      <c r="H20" s="21">
+        <v>11</v>
+      </c>
+      <c r="I20" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>67</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="21">
+        <v>67</v>
+      </c>
+      <c r="H21" s="21">
+        <v>68</v>
+      </c>
+      <c r="I21" s="21">
+        <v>16</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>28</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="21">
+        <v>28</v>
+      </c>
+      <c r="H22" s="21">
+        <v>20</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="G23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <v>2</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="21">
+        <v>3</v>
+      </c>
+      <c r="H24" s="21">
+        <v>4</v>
+      </c>
+      <c r="I24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>80</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="26"/>
+      <c r="G26" s="21">
+        <v>80</v>
+      </c>
+      <c r="H26" s="21">
+        <v>80</v>
+      </c>
+      <c r="I26" s="21">
+        <v>81</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="21">
+        <v>3</v>
+      </c>
+      <c r="H27" s="21">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="31"/>
+      <c r="G28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x18</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D28"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y30"/>
   <sheetViews>

--- a/Doku/KnxNetIp-Protokoll.xlsx
+++ b/Doku/KnxNetIp-Protokoll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="18915" windowHeight="12330" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="18915" windowHeight="12330" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConReq" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="HBReq" sheetId="7" r:id="rId5"/>
     <sheet name="HBResp" sheetId="8" r:id="rId6"/>
     <sheet name="Data" sheetId="9" r:id="rId7"/>
-    <sheet name="DataSend" sheetId="10" r:id="rId8"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId9"/>
+    <sheet name="DataAck" sheetId="11" r:id="rId8"/>
+    <sheet name="DataSend" sheetId="10" r:id="rId9"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="63">
   <si>
     <t>1A</t>
   </si>
@@ -161,9 +162,6 @@
     <t>Disconnection Request</t>
   </si>
   <si>
-    <t>4E</t>
-  </si>
-  <si>
     <t>Heartbeat Response</t>
   </si>
   <si>
@@ -173,9 +171,6 @@
     <t>0A</t>
   </si>
   <si>
-    <t>4F</t>
-  </si>
-  <si>
     <t>BC</t>
   </si>
   <si>
@@ -243,6 +238,9 @@
   </si>
   <si>
     <t>MSG Code   0x11 = L_Data.req</t>
+  </si>
+  <si>
+    <t>yy</t>
   </si>
 </sst>
 </file>
@@ -284,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -357,11 +355,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -416,6 +423,21 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,22 +451,16 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +785,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -791,7 +807,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -809,7 +825,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -825,8 +841,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -841,8 +857,8 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -855,8 +871,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -871,8 +887,8 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -885,7 +901,7 @@
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -903,7 +919,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
@@ -919,8 +935,8 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -935,8 +951,8 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -949,8 +965,8 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -963,8 +979,8 @@
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -977,8 +993,8 @@
       <c r="C18" s="1">
         <v>46</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -993,8 +1009,8 @@
       <c r="C19" s="1">
         <v>51</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1007,7 +1023,7 @@
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1025,7 +1041,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1041,8 +1057,8 @@
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1057,8 +1073,8 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1071,8 +1087,8 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1085,8 +1101,8 @@
       <c r="C25" s="1">
         <v>12</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1099,8 +1115,8 @@
       <c r="C26" s="1">
         <v>46</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1115,8 +1131,8 @@
       <c r="C27" s="1">
         <v>51</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1129,7 +1145,7 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1147,7 +1163,7 @@
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="5" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1179,7 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
@@ -1179,25 +1195,529 @@
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D28:D31"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D28:D31"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Y30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="23" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>67</v>
+      </c>
+      <c r="R3">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>80</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>68</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>80</v>
+      </c>
+      <c r="W4">
+        <v>15</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>80</v>
+      </c>
+      <c r="W5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1206,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,10 +1746,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1768,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1266,7 +1786,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1282,8 +1802,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1298,8 +1818,8 @@
       <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1312,8 +1832,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1328,8 +1848,8 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1339,8 +1859,8 @@
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
-      <c r="C12" s="1">
-        <v>46</v>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -1378,7 +1898,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1396,7 +1916,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1412,8 +1932,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="23" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1428,8 +1948,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1442,8 +1962,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="23"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1461,8 +1981,8 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="23"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -1480,8 +2000,8 @@
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="13"/>
@@ -1501,8 +2021,8 @@
       <c r="C21" s="1">
         <v>57</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="23"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
@@ -1520,7 +2040,7 @@
       <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1543,7 +2063,7 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1564,7 +2084,7 @@
       <c r="C24" s="1">
         <v>11</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +2105,7 @@
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1643,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,10 +2183,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +2205,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1703,7 +2223,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1719,8 +2239,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1735,8 +2255,8 @@
       <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1749,8 +2269,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1765,8 +2285,8 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1777,7 +2297,7 @@
         <v>0x07</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -1815,7 +2335,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1833,7 +2353,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1849,8 +2369,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1865,8 +2385,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1879,8 +2399,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1893,8 +2413,8 @@
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1907,8 +2427,8 @@
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1923,8 +2443,8 @@
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1997,7 +2517,7 @@
   <dimension ref="A3:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,14 +2532,14 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2038,7 +2558,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2056,7 +2576,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2072,8 +2592,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2086,10 +2606,10 @@
         <v>0x04</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2102,8 +2622,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2118,8 +2638,8 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2129,8 +2649,8 @@
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
-      <c r="C12" s="1">
-        <v>46</v>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -2326,7 +2846,7 @@
   <dimension ref="A3:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,14 +2861,14 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +2887,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2385,7 +2905,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2401,8 +2921,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2417,8 +2937,8 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2431,8 +2951,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2447,8 +2967,8 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2459,7 +2979,7 @@
         <v>0x07</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -2497,7 +3017,7 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2515,7 +3035,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2531,8 +3051,8 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2547,8 +3067,8 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2561,8 +3081,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2575,8 +3095,8 @@
       <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2589,8 +3109,8 @@
       <c r="C20" s="1">
         <v>46</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2605,8 +3125,8 @@
       <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -2679,7 +3199,7 @@
   <dimension ref="A3:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,14 +3214,14 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +3240,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2738,7 +3258,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
@@ -2754,8 +3274,8 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2770,8 +3290,8 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2784,8 +3304,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2800,8 +3320,8 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2811,8 +3331,8 @@
         <f t="shared" si="0"/>
         <v>0x07</v>
       </c>
-      <c r="C12" s="1">
-        <v>46</v>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -3008,7 +3528,7 @@
   <dimension ref="A3:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,14 +3547,14 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +3573,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3080,7 +3600,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
@@ -3105,8 +3625,8 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1">
@@ -3130,8 +3650,8 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
       <c r="G9" s="1">
         <v>20</v>
       </c>
@@ -3153,8 +3673,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1">
@@ -3178,8 +3698,8 @@
       <c r="C11" s="1">
         <v>17</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
       <c r="G11" s="21">
         <v>17</v>
       </c>
@@ -3201,8 +3721,8 @@
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>47</v>
+      <c r="D12" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -3226,9 +3746,9 @@
         <v>0x08</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="D13" s="29"/>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
@@ -3250,12 +3770,12 @@
         <f t="shared" si="0"/>
         <v>0x09</v>
       </c>
-      <c r="C14" s="1">
-        <v>94</v>
-      </c>
-      <c r="D14" s="24"/>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="29"/>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="21">
         <v>0</v>
@@ -3278,9 +3798,9 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3303,11 +3823,11 @@
       <c r="C16" s="1">
         <v>29</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>46</v>
+      <c r="D16" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>29</v>
@@ -3330,9 +3850,9 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -3353,20 +3873,20 @@
         <v>0x0D</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3378,20 +3898,20 @@
         <v>0x0E</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3405,9 +3925,9 @@
       <c r="C20" s="1">
         <v>11</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26" t="s">
-        <v>48</v>
+      <c r="D20" s="29"/>
+      <c r="E20" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="21">
         <v>11</v>
@@ -3430,8 +3950,8 @@
       <c r="C21" s="1">
         <v>67</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="23"/>
       <c r="G21" s="21">
         <v>67</v>
       </c>
@@ -3456,9 +3976,9 @@
       <c r="C22" s="1">
         <v>28</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26" t="s">
-        <v>49</v>
+      <c r="D22" s="29"/>
+      <c r="E22" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="G22" s="21">
         <v>28</v>
@@ -3482,12 +4002,12 @@
         <v>0x12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23"/>
       <c r="G23" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="21">
         <v>1</v>
@@ -3510,9 +4030,9 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="21">
         <v>3</v>
@@ -3538,9 +4058,9 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="26" t="s">
-        <v>55</v>
+      <c r="D25" s="29"/>
+      <c r="E25" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -3566,8 +4086,8 @@
       <c r="C26" s="1">
         <v>80</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="23"/>
       <c r="G26" s="21">
         <v>80</v>
       </c>
@@ -3592,9 +4112,9 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="31" t="s">
-        <v>56</v>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="G27" s="21">
         <v>3</v>
@@ -3616,12 +4136,12 @@
         <v>0x17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="31"/>
+        <v>42</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
       <c r="G28" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>0</v>
@@ -3667,16 +4187,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D28"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3684,10 +4204,528 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" customWidth="1"/>
+    <col min="7" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
+    <col min="14" max="26" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f>CONCATENATE("0x",DEC2HEX(A6,2))</f>
+        <v>0x01</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" ref="B7:B29" si="0">CONCATENATE("0x",DEC2HEX(A7,2))</f>
+        <v>0x02</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x03</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>0x04</v>
+      </c>
+      <c r="C9" s="1">
+        <v>21</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x06</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x07</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x08</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x09</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0A</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>24</v>
+      </c>
+      <c r="B29" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>0x18</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,14 +4744,14 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3732,7 +4770,7 @@
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -3759,7 +4797,7 @@
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="20" t="s">
         <v>31</v>
       </c>
@@ -3784,8 +4822,8 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1">
@@ -3809,8 +4847,8 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
       <c r="G9" s="1">
         <v>20</v>
       </c>
@@ -3832,8 +4870,8 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1">
@@ -3857,8 +4895,8 @@
       <c r="C11" s="1">
         <v>17</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
       <c r="G11" s="21">
         <v>17</v>
       </c>
@@ -3880,8 +4918,8 @@
       <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>47</v>
+      <c r="D12" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -3905,9 +4943,9 @@
         <v>0x08</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="D13" s="29"/>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
@@ -3929,12 +4967,12 @@
         <f t="shared" si="0"/>
         <v>0x09</v>
       </c>
-      <c r="C14" s="1">
-        <v>94</v>
-      </c>
-      <c r="D14" s="24"/>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="29"/>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="21">
         <v>0</v>
@@ -3957,9 +4995,9 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3982,11 +5020,11 @@
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>46</v>
+      <c r="D16" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1">
         <v>11</v>
@@ -4009,9 +5047,9 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4032,20 +5070,20 @@
         <v>0x0D</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4057,20 +5095,20 @@
         <v>0x0E</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="E19" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4084,9 +5122,9 @@
       <c r="C20" s="1">
         <v>11</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26" t="s">
-        <v>48</v>
+      <c r="D20" s="29"/>
+      <c r="E20" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="21">
         <v>11</v>
@@ -4109,8 +5147,8 @@
       <c r="C21" s="1">
         <v>67</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="23"/>
       <c r="G21" s="21">
         <v>67</v>
       </c>
@@ -4135,9 +5173,9 @@
       <c r="C22" s="1">
         <v>28</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26" t="s">
-        <v>49</v>
+      <c r="D22" s="29"/>
+      <c r="E22" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="G22" s="21">
         <v>28</v>
@@ -4161,12 +5199,12 @@
         <v>0x12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23"/>
       <c r="G23" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="21">
         <v>1</v>
@@ -4189,9 +5227,9 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="21">
         <v>3</v>
@@ -4217,9 +5255,9 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="26" t="s">
-        <v>55</v>
+      <c r="D25" s="29"/>
+      <c r="E25" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -4245,8 +5283,8 @@
       <c r="C26" s="1">
         <v>80</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="23"/>
       <c r="G26" s="21">
         <v>80</v>
       </c>
@@ -4271,9 +5309,9 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="31" t="s">
-        <v>56</v>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="G27" s="21">
         <v>3</v>
@@ -4295,12 +5333,12 @@
         <v>0x17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="31"/>
+        <v>42</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
       <c r="G28" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>0</v>
@@ -4346,521 +5384,17 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D16:D28"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D6:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D28"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Y30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="23" width="4.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>48</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>29</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3">
-        <v>11</v>
-      </c>
-      <c r="Q3">
-        <v>67</v>
-      </c>
-      <c r="R3">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>80</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>48</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4">
-        <v>11</v>
-      </c>
-      <c r="Q4">
-        <v>68</v>
-      </c>
-      <c r="R4">
-        <v>20</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>80</v>
-      </c>
-      <c r="W4">
-        <v>15</v>
-      </c>
-      <c r="X4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>48</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>29</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5">
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>80</v>
-      </c>
-      <c r="W5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>80</v>
-      </c>
-      <c r="C27" s="1">
-        <v>80</v>
-      </c>
-      <c r="D27" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>